--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="12030"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Идентификатор</t>
   </si>
@@ -101,6 +101,78 @@
   </si>
   <si>
     <t>При вводе математической операции программа должна вывести строку "Это не целое число, или не число вовсе. Пожалуйста, попробуйте еще раз."</t>
+  </si>
+  <si>
+    <t>Ввод отрицательных чисел</t>
+  </si>
+  <si>
+    <t>Ввести -12, ввести -34, ввести -56, ввести 0</t>
+  </si>
+  <si>
+    <t>-12, -34, -56, 0</t>
+  </si>
+  <si>
+    <t>Число с максимальной суммой цифр: -56</t>
+  </si>
+  <si>
+    <t>Ввод положительных чисел</t>
+  </si>
+  <si>
+    <t>Ввести 12, 34, 56, 0</t>
+  </si>
+  <si>
+    <t>12, 34, 56, 0</t>
+  </si>
+  <si>
+    <t>Число с максимальной суммой цифр: 56</t>
+  </si>
+  <si>
+    <t>Ввод чисел с одинаковой суммой цифр</t>
+  </si>
+  <si>
+    <t>Ввести 123, 321, 231, 0</t>
+  </si>
+  <si>
+    <t>123, 321, 231, 0</t>
+  </si>
+  <si>
+    <t>Число с максимальной суммой цифр: 231</t>
+  </si>
+  <si>
+    <t>Не пройден</t>
+  </si>
+  <si>
+    <t>Ввод 0</t>
+  </si>
+  <si>
+    <t>Ввести 0</t>
+  </si>
+  <si>
+    <t>Число с максимальной суммой цифр: 0</t>
+  </si>
+  <si>
+    <t>Ввод чисел, содержащих одинаковую сумму цифр, но разное кол-вол цифр</t>
+  </si>
+  <si>
+    <t>Ввести 1234, ввести 234, ввести 34, ввести 0</t>
+  </si>
+  <si>
+    <t>1234, 234, 34, 0</t>
+  </si>
+  <si>
+    <t>Число с максимальной суммой цифр: 1234</t>
+  </si>
+  <si>
+    <t>Ввод числа содержащие одинаковую сумму цифр, но разное количество цифр и разные знаки.</t>
+  </si>
+  <si>
+    <t>Ввести -1234, ввести 234, -34, 0</t>
+  </si>
+  <si>
+    <t>-1234, 234, -34, 0</t>
+  </si>
+  <si>
+    <t>Число с максимальной суммой цифр: -1234</t>
   </si>
 </sst>
 </file>
@@ -113,7 +185,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +194,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFD2D0CE"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -273,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +362,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,55 +699,52 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,88 +759,100 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1293,21 +1387,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="15.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="20.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="21.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="26.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="25.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="24.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:7">
@@ -1333,129 +1427,267 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="139" customHeight="1" spans="1:7">
-      <c r="A2" s="1">
+    <row r="2" ht="102" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="163" customHeight="1" spans="1:7">
-      <c r="A3" s="1">
+    <row r="3" ht="99" customHeight="1" spans="1:7">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="165" customHeight="1" spans="1:7">
-      <c r="A4" s="1">
+    <row r="4" ht="114" customHeight="1" spans="1:7">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="159" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+    <row r="5" ht="100" customHeight="1" spans="1:7">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="114" customHeight="1" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="33" customHeight="1" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+    <row r="7" ht="65" customHeight="1" spans="1:7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" spans="1:7">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="54" customHeight="1" spans="1:7">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="38" customHeight="1" spans="1:7">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="84" customHeight="1" spans="1:7">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="81" customHeight="1" spans="1:7">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="108" customHeight="1"/>
+    <row r="14" ht="46" customHeight="1" spans="1:6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="15360" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Идентификатор</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Число с максимальной суммой цифр: 231</t>
+  </si>
+  <si>
+    <t>Число с максимальной суммой цифр: 123</t>
   </si>
   <si>
     <t>Не пройден</t>
@@ -1389,8 +1392,8 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1605,10 +1608,10 @@
         <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="38" customHeight="1" spans="1:7">
@@ -1616,16 +1619,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -1639,16 +1642,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -1662,16 +1665,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
